--- a/biology/Biologie cellulaire et moléculaire/Algorithme_de_Needleman-Wunsch/Algorithme_de_Needleman-Wunsch.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Algorithme_de_Needleman-Wunsch/Algorithme_de_Needleman-Wunsch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'algorithme de Needleman-Wunsch est un algorithme qui effectue un alignement global maximal de deux chaînes de caractères. Il est couramment utilisé en bio-informatique pour aligner des séquences de protéines ou de nucléotides. L'algorithme a été présenté en 1970 par Saul Needleman et Christian Wunsch dans leur article A general method applicable to the search for similarities in the amino acid sequence of two proteins[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'algorithme de Needleman-Wunsch est un algorithme qui effectue un alignement global maximal de deux chaînes de caractères. Il est couramment utilisé en bio-informatique pour aligner des séquences de protéines ou de nucléotides. L'algorithme a été présenté en 1970 par Saul Needleman et Christian Wunsch dans leur article A general method applicable to the search for similarities in the amino acid sequence of two proteins. 
 L'algorithme de Needleman-Wunsch est un exemple de programmation dynamique, tout comme l'algorithme de Wagner et Fischer pour le calcul de la distance de Levenshtein auquel il est apparenté. Il garantit de trouver l'alignement de score maximal. Ce fut la première application de la programmation dynamique pour la comparaison de séquences biologiques.
 Les scores pour les caractères alignés sont spécifiés par une matrice de similarité. Ici, 
         S
@@ -521,7 +533,9 @@
           <t>Exemple</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Par exemple, si la matrice de similarité était
 alors l'alignement: 
@@ -642,7 +656,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la suite on appelle A et B les chaînes de caractères à comparer.
 Pour déterminer l'alignement de score maximal, un tableau bidimensionnel, ou matrice est utilisé. Cette matrice est parfois appelée matrice F, et ses éléments aux positions (i, j) sont notés 
